--- a/data/trans_orig/P36B03_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B03_2023-Edad-trans_orig.xlsx
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la frecuencia de consumición de pan, cereales en 2023 (Tasa respuesta: 99,93%)</t>
+          <t>Población según la frecuencia de consumo de pan, cereales en 2023 (Tasa respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -717,7 +717,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,69%</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -809,7 +809,7 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,06%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>5,52%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>15,1%</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>76,85%</t>
+          <t>77,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>88,65%</t>
+          <t>88,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -996,12 +996,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>76,61%</t>
+          <t>77,08%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>87,93%</t>
+          <t>87,92%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>79,25%</t>
+          <t>78,94%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>87,28%</t>
+          <t>87,02%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>2,88%</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>7,7%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>6,86%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>14,55%</t>
         </is>
       </c>
     </row>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>77,25%</t>
+          <t>77,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>86,6%</t>
+          <t>86,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>68,48%</t>
+          <t>67,2%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>80,61%</t>
+          <t>80,51%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>74,06%</t>
+          <t>74,04%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>82,08%</t>
+          <t>82,17%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,26%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,89%</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,55%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>13,61%</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>77,22%</t>
+          <t>77,4%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>84,5%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>77,15%</t>
+          <t>77,36%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>78,5%</t>
+          <t>78,32%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>83,0%</t>
+          <t>82,91%</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>3,54%</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,13%</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,52%</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>13,16%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>12,89%</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>80,89%</t>
+          <t>81,03%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>88,0%</t>
+          <t>87,84%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>76,9%</t>
+          <t>77,12%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>82,99%</t>
+          <t>82,97%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>80,05%</t>
+          <t>79,89%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>84,67%</t>
+          <t>84,41%</t>
         </is>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2432,12 +2432,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,06%</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2524,12 +2524,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,04%</t>
         </is>
       </c>
     </row>
@@ -2553,12 +2553,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,52%</t>
         </is>
       </c>
     </row>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2645,12 +2645,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>12,54%</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>81,03%</t>
+          <t>81,0%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>86,76%</t>
+          <t>86,93%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>80,47%</t>
+          <t>80,25%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>85,23%</t>
+          <t>85,04%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2737,12 +2737,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>81,45%</t>
+          <t>81,5%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>85,2%</t>
+          <t>85,25%</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2862,12 +2862,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,58%</t>
         </is>
       </c>
     </row>
@@ -2912,12 +2912,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2954,12 +2954,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,46%</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,31%</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3054,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3096,12 +3096,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>11,84%</t>
         </is>
       </c>
     </row>
@@ -3116,7 +3116,7 @@
         <v>861</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>582155</v>
+        <v>582156</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>81,02%</t>
+          <t>80,82%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>85,63%</t>
+          <t>85,76%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>81,5%</t>
+          <t>81,27%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>88,99%</t>
+          <t>88,93%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3167,12 +3167,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>82,03%</t>
+          <t>82,13%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>87,3%</t>
+          <t>87,42%</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
         <v>1028</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
@@ -3271,12 +3271,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
@@ -3292,12 +3292,12 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3313,12 +3313,12 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,69%</t>
         </is>
       </c>
     </row>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>1,93%</t>
         </is>
       </c>
     </row>
@@ -3413,12 +3413,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3434,7 +3434,7 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,74%</t>
         </is>
       </c>
     </row>
@@ -3484,12 +3484,12 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
@@ -3505,12 +3505,12 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
@@ -3526,12 +3526,12 @@
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>11,88%</t>
         </is>
       </c>
     </row>
@@ -3555,12 +3555,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>81,78%</t>
+          <t>81,75%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>84,81%</t>
+          <t>84,6%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3576,12 +3576,12 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>79,88%</t>
+          <t>80,07%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>83,36%</t>
+          <t>83,64%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
@@ -3597,12 +3597,12 @@
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>81,22%</t>
+          <t>81,13%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>83,55%</t>
+          <t>83,44%</t>
         </is>
       </c>
     </row>
